--- a/CFGLUT5.xlsx
+++ b/CFGLUT5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podonoghue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\podonoghue\Documents\Development\LogicAnalyser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100010_{5C6568DA-6662-4F49-BBCF-374D883D5C25}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B8238A43-68DE-4BF1-A6EE-3237D1C56123}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="2" xr2:uid="{C7578021-A985-4469-AD12-8C87FE43AE67}"/>
   </bookViews>
@@ -19,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="MATCH_COUNTER_BITS">Sheet1!$B$2</definedName>
-    <definedName name="MAX_CONDITIONS">Sheet1!$B$4</definedName>
+    <definedName name="MAX_TRIGGER_CONDITIONS">Sheet1!$B$4</definedName>
     <definedName name="MAX_TRIGGER_STEPS">Sheet1!$B$3</definedName>
-    <definedName name="NUM_FLAGS">Sheet1!$B$6</definedName>
+    <definedName name="NUM_TRIGGER_FLAGS">Sheet1!$B$6</definedName>
     <definedName name="SAMPLE_WIDTH">Sheet1!$B$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="41">
   <si>
     <t>last</t>
   </si>
@@ -99,23 +99,7 @@
     <t>MAX_TRIGGER_STEPS</t>
   </si>
   <si>
-    <t>MAX_CONDITIONS</t>
-  </si>
-  <si>
     <t>LogicAnalyser</t>
-  </si>
-  <si>
-    <t>1
-Combiner
-MAX_TRIGGER_STEPS*MAX_CONDITIONS/4</t>
-  </si>
-  <si>
-    <t>NUM_FLAGS</t>
-  </si>
-  <si>
-    <t>NUM_FLAGS
-StepFlags
-MAX_TRIGGER_STEPS/16</t>
   </si>
   <si>
     <t>MAX_TRIGGER_STEPS/2
@@ -134,21 +118,61 @@
     <t>SAMPLE_WIDTH</t>
   </si>
   <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>Combiner</t>
+  </si>
+  <si>
+    <t>Countmatcher</t>
+  </si>
+  <si>
+    <t>StepFlags</t>
+  </si>
+  <si>
+    <t>NUM_TRIGGER_FLAGS</t>
+  </si>
+  <si>
+    <t>NUM_TRIGGER_FLAGS
+StepFlags
+MAX_TRIGGER_STEPS/16</t>
+  </si>
+  <si>
+    <t>MAX_TRIGGER_CONDITIONS</t>
+  </si>
+  <si>
+    <t>1
+TriggerMatches
+(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 * SAMPLE_WIDTH/2) +
+(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4)</t>
+  </si>
+  <si>
     <t>1
 TriggerBlock
-1*(MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 * SAMPLE_WIDTH/2) + 1*((MAX_TRIGGER_STEPS*MAX_CONDITIONS/4) +
+1*(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 * SAMPLE_WIDTH/2) + 1*((MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4) +
     (MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4)) +
 NUM_FLAGS*MAX_TRIGGER_STEPS/16</t>
   </si>
   <si>
-    <t>1
-TriggerMatches
-(MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 * SAMPLE_WIDTH/2) +
-(MAX_TRIGGER_STEPS*MAX_CONDITIONS/4)</t>
+    <t>MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 TriggerMatcher
+SAMPLE_WIDTH/2</t>
   </si>
   <si>
-    <t>MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 TriggerMatcher
-SAMPLE_WIDTH/2</t>
+    <t>1
+Combiner
+MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_LUTS</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_COMBINER_LUTS</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_COUNTS</t>
+  </si>
+  <si>
+    <t>START_TRIGGER_FLAG_LUTS</t>
   </si>
 </sst>
 </file>
@@ -408,27 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,6 +448,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -9848,24 +9872,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC36CBC-2DE2-49B7-9D4A-AEDF3E3034D1}">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" style="16" customWidth="1"/>
-    <col min="2" max="2" width="58.3984375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="66.3984375" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.19921875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="56.19921875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="64.265625" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="17" customWidth="1"/>
     <col min="6" max="6" width="40.3984375" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="16"/>
+    <col min="7" max="7" width="1.9296875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.9296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.06640625" style="16"/>
+    <col min="11" max="11" width="25.6640625" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
@@ -9873,7 +9901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>20</v>
       </c>
@@ -9881,136 +9909,185 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B4" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="21">
         <v>16</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="37">
-        <f>1*((MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 * SAMPLE_WIDTH/2) +(MAX_TRIGGER_STEPS*MAX_CONDITIONS/4))</f>
-        <v>272</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="41">
-        <f>MAX_TRIGGER_STEPS*(MAX_CONDITIONS/2) * (SAMPLE_WIDTH/2)</f>
-        <v>256</v>
+    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="40">
+        <f>1*((MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 * SAMPLE_WIDTH/2) +(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4))</f>
+        <v>136</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="34">
+        <f>MAX_TRIGGER_STEPS*(MAX_TRIGGER_CONDITIONS/2) * (SAMPLE_WIDTH/2)</f>
+        <v>128</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="34"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="42"/>
+        <v>35</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="16">
+        <f>E8</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="41"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="24">
         <f>SAMPLE_WIDTH/2</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="34"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="41">
-        <f>1*(MAX_TRIGGER_STEPS*MAX_CONDITIONS/4)</f>
-        <v>16</v>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A10" s="41"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="34">
+        <f>1*(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4)</f>
+        <v>8</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="16">
+        <f>E10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="41"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="25">
-        <f>MAX_TRIGGER_STEPS*MAX_CONDITIONS/4</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="34"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
+        <f>MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4</f>
+        <v>8</v>
+      </c>
+      <c r="H11" s="16">
+        <f>SUM($I$8:I9)</f>
+        <v>128</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="28">
-        <f>(MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 * SAMPLE_WIDTH/2) +(MAX_TRIGGER_STEPS*MAX_CONDITIONS/4)</f>
-        <v>272</v>
+        <f>(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 * SAMPLE_WIDTH/2) +(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4)</f>
+        <v>136</v>
       </c>
       <c r="E12" s="18">
         <f>SUM(E8:E10)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37">
-        <f>1*((MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4))</f>
+        <v>136</v>
+      </c>
+      <c r="J12" s="16">
+        <f>MAX_TRIGGER_STEPS*(MAX_TRIGGER_CONDITIONS/2) * (SAMPLE_WIDTH/2)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="41"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="40">
+        <f>(MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4)</f>
         <v>32</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="D13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="36">
         <f>(MAX_TRIGGER_STEPS/2)*(MATCH_COUNTER_BITS/4)</f>
         <v>32</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="44"/>
+        <v>22</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="16">
+        <f>E13</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="41"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="27">
         <f>MATCH_COUNTER_BITS/4</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
+      <c r="H14" s="16">
+        <f>SUM($I$8:I12)</f>
+        <v>136</v>
+      </c>
+      <c r="J14" s="16">
+        <f>MAX_TRIGGER_STEPS*(MAX_TRIGGER_CONDITIONS/2) * (SAMPLE_WIDTH/2)</f>
+        <v>128</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="29">
         <f>(MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4)</f>
         <v>32</v>
@@ -10020,25 +10097,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37">
-        <f>NUM_FLAGS*(MAX_TRIGGER_STEPS/16)</f>
+    <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="41"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="40">
+        <f>NUM_TRIGGER_FLAGS*(MAX_TRIGGER_STEPS/16)</f>
         <v>2</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E16" s="20">
         <f>MAX_TRIGGER_STEPS/16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="34"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
+      <c r="H16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="16">
+        <f>E16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="31">
         <f>MAX_TRIGGER_STEPS/16</f>
         <v>1</v>
@@ -10047,19 +10131,26 @@
         <f>SUM(E16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
+      <c r="H17" s="16">
+        <f>SUM($I$8:I14)</f>
+        <v>168</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
       <c r="B18" s="32">
-        <f>1*(MAX_TRIGGER_STEPS*MAX_CONDITIONS/2 * SAMPLE_WIDTH/2) + 1*((MAX_TRIGGER_STEPS*MAX_CONDITIONS/4) +    (MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4)) + NUM_FLAGS*MAX_TRIGGER_STEPS/16</f>
-        <v>306</v>
+        <f>1*(MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/2 * SAMPLE_WIDTH/2) + 1*((MAX_TRIGGER_STEPS*MAX_TRIGGER_CONDITIONS/4) +    (MAX_TRIGGER_STEPS/2) * (MATCH_COUNTER_BITS/4)) + NUM_TRIGGER_FLAGS*MAX_TRIGGER_STEPS/16</f>
+        <v>170</v>
       </c>
       <c r="C18" s="33">
         <f>SUM(C8:C17)</f>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C22" s="17">
         <v>224</v>
       </c>
@@ -10068,55 +10159,55 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C23" s="17">
         <f>C22+16</f>
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C24" s="17">
         <f t="shared" ref="C24:C31" si="0">C23+16</f>
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C25" s="17">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C26" s="17">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C27" s="17">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C28" s="17">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C29" s="17">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C30" s="17">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C31" s="17">
         <f t="shared" si="0"/>
         <v>368</v>
@@ -10124,16 +10215,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A18"/>
-    <mergeCell ref="B8:B17"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
